--- a/Jogos_do_Dia/2023-01-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3.02</v>
       </c>
       <c r="H2" t="n">
-        <v>4.25</v>
+        <v>4.54</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="N2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O2" t="n">
         <v>1.52</v>
@@ -704,7 +704,7 @@
         <v>3.16</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE2" t="n">
         <v>1.49</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,10 +763,10 @@
         <v>2.54</v>
       </c>
       <c r="M3" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -814,7 +814,7 @@
         <v>2.54</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE3" t="n">
         <v>1.51</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="G4" t="n">
-        <v>4.7</v>
+        <v>5.51</v>
       </c>
       <c r="H4" t="n">
-        <v>9.5</v>
+        <v>13.04</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -873,10 +873,10 @@
         <v>3.18</v>
       </c>
       <c r="M4" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
@@ -915,28 +915,28 @@
         <v>2.97</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>4.25</v>
+        <v>3.88</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>4.99</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.19</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="N6" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="G7" t="n">
-        <v>5.75</v>
+        <v>5.85</v>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>7.61</v>
       </c>
       <c r="I7" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia/2023-01-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G2" t="n">
-        <v>3.02</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4.54</v>
+        <v>4.25</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="N2" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O2" t="n">
         <v>1.52</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44945.5</v>
+        <v>44945.48958333334</v>
       </c>
       <c r="C3" t="n">
         <v>14</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.39</v>
+        <v>2.36</v>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.34</v>
+        <v>3.19</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,10 +763,10 @@
         <v>2.54</v>
       </c>
       <c r="M3" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="N3" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="G4" t="n">
-        <v>5.51</v>
+        <v>4.63</v>
       </c>
       <c r="H4" t="n">
-        <v>13.04</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -873,10 +873,10 @@
         <v>3.18</v>
       </c>
       <c r="M4" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="N4" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G5" t="n">
-        <v>3.88</v>
+        <v>4.25</v>
       </c>
       <c r="H5" t="n">
-        <v>4.99</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3.19</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="N6" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
-        <v>5.85</v>
+        <v>5.75</v>
       </c>
       <c r="H7" t="n">
-        <v>7.61</v>
+        <v>7.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.01</v>
@@ -1203,10 +1203,10 @@
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="N7" t="n">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
